--- a/src/main/resources/data/raw data/2023/노원구/재무과/2023. 6. 업무추진비 사용내역.xlsx
+++ b/src/main/resources/data/raw data/2023/노원구/재무과/2023. 6. 업무추진비 사용내역.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\현정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\JavaProject\work\FreeMeal\src\main\resources\data\raw data\2023\노원구\재무과\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED421CD-2594-4699-AE4F-6F6D169D0085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1D2B6-CA39-4C6A-B830-5DA79FCCBFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>계약업무 추진을 위한 간담회 비용지출</t>
   </si>
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>투썸플레이스 노원점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 26. 12:32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,55 +249,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 6. 30. 12:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 28. 17:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 27. 20:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 27. 12:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 26. 12:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 22. 12:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 13. 12:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 12. 12:23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 22. 12:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 19. 12:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 19. 09:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제로페이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023. 6. 29. 12:41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -399,6 +347,42 @@
       <t>내역</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 19.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 28.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023. 6. 13.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,8 +718,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -747,10 +731,10 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +767,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,7 +776,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,7 +785,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,7 +794,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,10 +809,10 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,9 +842,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -898,7 +882,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1004,7 +988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1146,7 +1130,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1156,26 +1140,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.59765625" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1186,9 +1170,9 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="2"/>
@@ -1198,7 +1182,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>11</v>
@@ -1227,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>30</v>
@@ -1250,42 +1234,42 @@
         <v>45500</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7">
         <v>216300</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1308,13 +1292,13 @@
         <v>78800</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1337,21 +1321,21 @@
         <v>60000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>39</v>
@@ -1366,13 +1350,13 @@
         <v>97000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1364,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -1395,13 +1379,13 @@
         <v>75000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
@@ -1424,13 +1408,13 @@
         <v>117000</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1438,10 +1422,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>1</v>
@@ -1453,13 +1437,13 @@
         <v>122000</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1451,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>44</v>
@@ -1482,13 +1466,13 @@
         <v>29700</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -1496,7 +1480,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>44</v>
@@ -1511,13 +1495,13 @@
         <v>14800</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1540,13 +1524,13 @@
         <v>20340</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1554,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>37</v>
@@ -1569,24 +1553,24 @@
         <v>19000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>3</v>
@@ -1596,15 +1580,15 @@
         <v>32080</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="34" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -1618,19 +1602,19 @@
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
       <c r="F21" s="9"/>
     </row>
